--- a/output/below_50/tRNA-Cys-GCA-6-1.xlsx
+++ b/output/below_50/tRNA-Cys-GCA-6-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>chr3</t>
   </si>
@@ -156,144 +156,6 @@
   </si>
   <si>
     <t>56</t>
-  </si>
-  <si>
-    <t>131947997</t>
-  </si>
-  <si>
-    <t>131948020</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>131948000</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>ATCAAGGGGGTGTAGCTCAG</t>
-  </si>
-  <si>
-    <t>94% (66)</t>
-  </si>
-  <si>
-    <t>94% (74)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 27, Doench 2016: 94%, Moreno-Mateos: 94%</t>
-  </si>
-  <si>
-    <t>2.55982E+11</t>
-  </si>
-  <si>
-    <t>131948039</t>
-  </si>
-  <si>
-    <t>131948062</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>131948042</t>
-  </si>
-  <si>
-    <t>GGTCATAAAAATGGAATAAA</t>
-  </si>
-  <si>
-    <t>5% (25)</t>
-  </si>
-  <si>
-    <t>29% (35)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 33, Doench 2016: 5%, Moreno-Mateos: 29%</t>
-  </si>
-  <si>
-    <t>2.06118E+11</t>
-  </si>
-  <si>
-    <t>131948137</t>
-  </si>
-  <si>
-    <t>131948160</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>131948140</t>
-  </si>
-  <si>
-    <t>GGGAAAAACAAAAGATGGTA</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>69% (56)</t>
-  </si>
-  <si>
-    <t>44% (42)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 40, Doench 2016: 69%, Moreno-Mateos: 44%</t>
-  </si>
-  <si>
-    <t>1.51368E+11</t>
-  </si>
-  <si>
-    <t>131948142</t>
-  </si>
-  <si>
-    <t>131948165</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>131948145</t>
-  </si>
-  <si>
-    <t>GCTCTGGGAAAAACAAAAGA</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>20% (30)</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 45, Doench 2016: 59%, Moreno-Mateos: 20%</t>
-  </si>
-  <si>
-    <t>1.79999E+11</t>
   </si>
 </sst>
 </file>
@@ -338,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -639,242 +501,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
